--- a/data7.xlsx
+++ b/data7.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTK\PRMIA\Matlab Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Examples\R2020b\matlab\PRMIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF468E3B-BF07-4C72-8F1A-E22D3705C0F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB9E85-7A33-4445-ACA6-ABACDCC7A76B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="16200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,56 +372,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>37782</v>
+        <v>37981</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">20+((RAND()*2-1)*20)</f>
-        <v>38.189796790076798</v>
+        <v>15.83766359598247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>37783</v>
+        <v>37982</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B7" ca="1" si="0">20+((RAND()*2-1)*20)</f>
-        <v>8.2126882221410682</v>
+        <f ca="1">20+((RAND()*2-1)*20)</f>
+        <v>15.825283618158888</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>37784</v>
+        <v>37983</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7754577927200117</v>
+        <f ca="1">20+((RAND()*2-1)*20)</f>
+        <v>19.826436940085234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>37785</v>
+        <v>37984</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94916819340181391</v>
+        <f t="shared" ref="B2:B6" ca="1" si="0">20+((RAND()*2-1)*20)</f>
+        <v>0.38237811462569482</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>37786</v>
+        <v>37985</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30.142593405796916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>37787</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.053339694377154</v>
+        <v>33.490262741310097</v>
       </c>
     </row>
   </sheetData>
